--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -16,12 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Arun</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>may date</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>CDE</t>
+  </si>
+  <si>
+    <t>EFG</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>JKL</t>
+  </si>
+  <si>
+    <t>MNO</t>
+  </si>
+  <si>
+    <t>PQR</t>
+  </si>
+  <si>
+    <t>STU</t>
+  </si>
+  <si>
+    <t>WDQ</t>
+  </si>
+  <si>
+    <t>WER</t>
+  </si>
+  <si>
+    <t>ETT</t>
   </si>
 </sst>
 </file>
@@ -355,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -371,22 +401,79 @@
         <v>42125</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>42168</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>42199</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>42168</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
